--- a/results/ML/SLR_NEMScr_vs_S2_GRD_2TO29/evaluateRegModel.xlsx
+++ b/results/ML/SLR_NEMScr_vs_S2_GRD_2TO29/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\SLR_NEMScr_vs_S2_GRD_2TO29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\SLR_NEMScr_vs_S2_GRD_2TO29\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B75E31-693F-471A-91B6-22077CD5D59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EF738D-AA7E-44B9-B892-80AA05D2815B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
